--- a/Test_Documentation/Checklists/Web_app/Checklists_for_learn.epam.com_STA_course.xlsx
+++ b/Test_Documentation/Checklists/Web_app/Checklists_for_learn.epam.com_STA_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test Documentation\Checklists\Web_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test_Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952D19D7-0DC0-47C6-A4D5-3ECFFD2B0196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E62DFD-9FAC-4E68-9FCF-41DDE4027988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37770" yWindow="-3800" windowWidth="37770" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist learn.epam.com" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="203">
   <si>
     <t>1.</t>
   </si>
@@ -800,7 +800,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -860,12 +860,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -972,21 +981,51 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1005,35 +1044,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1350,11 +1362,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,88 +1382,73 @@
     <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-    </row>
-    <row r="3" spans="1:8" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" s="30" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B4" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="48" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D5" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="26" t="s">
-        <v>180</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -1460,56 +1457,56 @@
       <c r="G5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="12" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="29" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="8" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="26" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="26" t="s">
         <v>179</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="26" t="s">
-        <v>174</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="10" t="s">
@@ -1518,18 +1515,18 @@
       <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="49"/>
+        <v>16</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10" t="s">
@@ -1538,16 +1535,18 @@
       <c r="G9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H9" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="25" t="s">
-        <v>181</v>
+        <v>18</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="10" t="s">
@@ -1556,54 +1555,52 @@
       <c r="G10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="12" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B12" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="48" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>176</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="26" t="s">
-        <v>170</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="10" t="s">
@@ -1612,172 +1609,172 @@
       <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="53"/>
+      <c r="H13" s="40" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="26" t="s">
+        <v>170</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="29" t="s">
-        <v>8</v>
+      <c r="F14" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>187</v>
-      </c>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="2" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="26" t="s">
-        <v>171</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="16" t="s">
+      <c r="G16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+    <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B18" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="48" t="s">
+      <c r="B19" s="41"/>
+      <c r="C19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D19" s="26" t="s">
         <v>178</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="26" t="s">
-        <v>177</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="49"/>
+        <v>33</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="26" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="49"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="41"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="43" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G21" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="49"/>
+        <v>35</v>
+      </c>
+      <c r="B22" s="41"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="26" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="10" t="s">
@@ -1786,36 +1783,36 @@
       <c r="G22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H22" s="53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="49"/>
+        <v>36</v>
+      </c>
+      <c r="B23" s="41"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="26" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="G23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="49"/>
+        <v>37</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="10" t="s">
@@ -1824,52 +1821,52 @@
       <c r="G24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="40"/>
-    </row>
-    <row r="25" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="H24" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="46"/>
+    </row>
+    <row r="26" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B26" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="48" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="26" t="s">
-        <v>169</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="10" t="s">
@@ -1878,36 +1875,36 @@
       <c r="G27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="40"/>
+    </row>
+    <row r="29" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="2" t="s">
+      <c r="B29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="29" t="s">
@@ -1916,54 +1913,54 @@
       <c r="G29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="55"/>
+    </row>
+    <row r="31" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="49"/>
+        <v>45</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="54"/>
+    </row>
+    <row r="32" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="26" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="29" t="s">
@@ -1972,92 +1969,92 @@
       <c r="G32" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="H32" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="26" t="s">
+        <v>161</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="46"/>
+    </row>
+    <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="20" t="s">
+    <row r="36" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B36" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="48" t="s">
+      <c r="B37" s="38"/>
+      <c r="C37" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>194</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="25" t="s">
-        <v>59</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="10" t="s">
@@ -2066,16 +2063,18 @@
       <c r="G37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="53"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="49"/>
+        <v>58</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="10" t="s">
@@ -2084,52 +2083,50 @@
       <c r="G38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="53"/>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B40" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="48" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D41" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="10" t="s">
@@ -2138,18 +2135,18 @@
       <c r="G41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H41" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="49"/>
+        <v>66</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="10" t="s">
@@ -2158,16 +2155,18 @@
       <c r="G42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H42" s="40"/>
+      <c r="H42" s="45" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="49"/>
+        <v>68</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="25" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="10" t="s">
@@ -2176,18 +2175,16 @@
       <c r="G43" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="38" t="s">
-        <v>32</v>
-      </c>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="10" t="s">
@@ -2196,16 +2193,18 @@
       <c r="G44" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H44" s="39"/>
+      <c r="H44" s="45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="B45" s="38"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="10" t="s">
@@ -2214,16 +2213,16 @@
       <c r="G45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="39"/>
+      <c r="H45" s="50"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="49"/>
+        <v>72</v>
+      </c>
+      <c r="B46" s="38"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="10" t="s">
@@ -2232,16 +2231,16 @@
       <c r="G46" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="39"/>
-    </row>
-    <row r="47" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="50"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
+        <v>73</v>
+      </c>
+      <c r="B47" s="38"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="25" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="10" t="s">
@@ -2250,52 +2249,50 @@
       <c r="G47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="20" t="s">
+      <c r="H47" s="50"/>
+    </row>
+    <row r="48" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="38"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48" s="46"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B49" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-    </row>
-    <row r="49" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+    </row>
+    <row r="50" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="48" t="s">
+      <c r="B50" s="38"/>
+      <c r="C50" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D50" s="26" t="s">
         <v>166</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="26" t="s">
-        <v>167</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="10" t="s">
@@ -2304,36 +2301,36 @@
       <c r="G50" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H50" s="45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="46"/>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="49"/>
+        <v>80</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="10" t="s">
@@ -2342,52 +2339,52 @@
       <c r="G52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="42"/>
-    </row>
-    <row r="53" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="20" t="s">
+      <c r="H52" s="51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="52"/>
+    </row>
+    <row r="54" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B54" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>17</v>
-      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="49"/>
+        <v>86</v>
+      </c>
+      <c r="B55" s="38"/>
+      <c r="C55" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="10" t="s">
@@ -2396,16 +2393,18 @@
       <c r="G55" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="46"/>
+      <c r="H55" s="51" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="49"/>
+        <v>88</v>
+      </c>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="10" t="s">
@@ -2414,52 +2413,50 @@
       <c r="G56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="42"/>
-    </row>
-    <row r="57" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="20" t="s">
+      <c r="H56" s="56"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="38"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="52"/>
+    </row>
+    <row r="58" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B58" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31" t="s">
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="48" t="s">
+      <c r="B59" s="38"/>
+      <c r="C59" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D59" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H58" s="53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="10" t="s">
@@ -2468,16 +2465,18 @@
       <c r="G59" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="54"/>
-    </row>
-    <row r="60" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H59" s="40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="49"/>
+        <v>94</v>
+      </c>
+      <c r="B60" s="38"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="10" t="s">
@@ -2486,16 +2485,16 @@
       <c r="G60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="54"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" s="43"/>
+    </row>
+    <row r="61" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="26" t="s">
-        <v>201</v>
+        <v>96</v>
+      </c>
+      <c r="B61" s="38"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="10" t="s">
@@ -2504,62 +2503,62 @@
       <c r="G61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="54"/>
-    </row>
-    <row r="62" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="55" t="s">
+      <c r="H61" s="43"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B62" s="38"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="3"/>
+      <c r="F62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="43"/>
+    </row>
+    <row r="63" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="20" t="s">
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B64" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="48" t="s">
+      <c r="B65" s="48"/>
+      <c r="C65" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D65" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="50"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="10" t="s">
@@ -2568,14 +2567,16 @@
       <c r="G65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="46"/>
+      <c r="H65" s="51" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="50"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="27" t="s">
-        <v>159</v>
+      <c r="A66" s="47"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="10" t="s">
@@ -2584,52 +2585,48 @@
       <c r="G66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="20" t="s">
+      <c r="H66" s="56"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="47"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="52"/>
+    </row>
+    <row r="68" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B68" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-    </row>
-    <row r="68" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="31" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+    </row>
+    <row r="69" spans="1:8" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="48" t="s">
+      <c r="B69" s="38"/>
+      <c r="C69" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D69" s="26" t="s">
         <v>158</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" s="38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="10" t="s">
@@ -2638,52 +2635,52 @@
       <c r="G69" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="40"/>
-    </row>
-    <row r="70" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="20" t="s">
+      <c r="H69" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="46"/>
+    </row>
+    <row r="71" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B70" s="37" t="s">
+      <c r="B71" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-    </row>
-    <row r="71" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="31" t="s">
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+    </row>
+    <row r="72" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="48" t="s">
+      <c r="B72" s="38"/>
+      <c r="C72" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" s="53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="10" t="s">
@@ -2692,16 +2689,18 @@
       <c r="G72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H72" s="53"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H72" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="49"/>
+        <v>114</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="10" t="s">
@@ -2710,16 +2709,16 @@
       <c r="G73" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H73" s="53"/>
-    </row>
-    <row r="74" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="40"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="49"/>
+        <v>116</v>
+      </c>
+      <c r="B74" s="38"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="10" t="s">
@@ -2728,52 +2727,50 @@
       <c r="G74" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H74" s="53"/>
-    </row>
-    <row r="75" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
+      <c r="H74" s="40"/>
+    </row>
+    <row r="75" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="40"/>
+    </row>
+    <row r="76" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B76" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>123</v>
-      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="49"/>
+        <v>122</v>
+      </c>
+      <c r="B77" s="48"/>
+      <c r="C77" s="36" t="s">
+        <v>6</v>
+      </c>
       <c r="D77" s="26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="10" t="s">
@@ -2782,16 +2779,18 @@
       <c r="G77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="39"/>
+      <c r="H77" s="45" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
+      </c>
+      <c r="B78" s="48"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="10" t="s">
@@ -2800,16 +2799,16 @@
       <c r="G78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="39"/>
+      <c r="H78" s="50"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="B79" s="48"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="10" t="s">
@@ -2818,126 +2817,124 @@
       <c r="G79" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H79" s="40"/>
-    </row>
-    <row r="80" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="50"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" s="48"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="46"/>
+    </row>
+    <row r="81" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="2" t="s">
+      <c r="B81" s="48"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E80" s="2"/>
-      <c r="F80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H80" s="19" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+    <row r="82" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="37" t="s">
+      <c r="B82" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-    </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="31" t="s">
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+    </row>
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B82" s="51" t="s">
+      <c r="B83" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="48" t="s">
+      <c r="C83" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="26" t="s">
+      <c r="D83" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="3"/>
-      <c r="F82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H82" s="41" t="s">
+      <c r="E83" s="3"/>
+      <c r="F83" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="51" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+    <row r="84" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B83" s="51"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="2" t="s">
+      <c r="B84" s="48"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E83" s="3"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H83" s="42"/>
-    </row>
-    <row r="84" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="20" t="s">
+      <c r="E84" s="3"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="52"/>
+    </row>
+    <row r="85" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B85" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-    </row>
-    <row r="85" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="31" t="s">
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+    </row>
+    <row r="86" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="48" t="s">
+      <c r="B86" s="44"/>
+      <c r="C86" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="26" t="s">
+      <c r="D86" s="26" t="s">
         <v>153</v>
-      </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" s="38" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B86" s="47"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="26" t="s">
-        <v>155</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="10" t="s">
@@ -2946,210 +2943,231 @@
       <c r="G86" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H86" s="40"/>
-    </row>
-    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="20" t="s">
+      <c r="H86" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="44"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="46"/>
+    </row>
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B88" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-    </row>
-    <row r="88" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="31" t="s">
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+    </row>
+    <row r="89" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="28" t="s">
+      <c r="B89" s="6"/>
+      <c r="C89" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="26" t="s">
+      <c r="D89" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E88" s="3"/>
-      <c r="F88" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H88" s="19" t="s">
+      <c r="E89" s="3"/>
+      <c r="F89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="20" t="s">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B90" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-    </row>
-    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="31" t="s">
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+    </row>
+    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="28" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="26" t="s">
+      <c r="D91" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="19" t="s">
+      <c r="E91" s="3"/>
+      <c r="F91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F92" s="36" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F93" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-    </row>
-    <row r="93" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="F93" s="23" t="s">
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+    </row>
+    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F94" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="G93" s="24"/>
-      <c r="H93" s="13" t="s">
+      <c r="G94" s="24"/>
+      <c r="H94" s="13" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B94" s="35" t="s">
+    <row r="95" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="B95" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E94" s="21"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="6" t="s">
+      <c r="E95" s="21"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G95" s="1"/>
-    </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B96" s="15"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G97" s="22"/>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G98" s="18"/>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" s="15"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="22"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G100" s="18"/>
     </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G101" s="18"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G102" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="H71:H74"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B70:H70"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A62:H62"/>
-    <mergeCell ref="B63:H63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B87:H87"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B81:H81"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F92:H92"/>
-    <mergeCell ref="B89:H89"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="H54:H56"/>
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H76:H79"/>
-    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="F93:H93"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="H44:H48"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H55:H57"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H77:H80"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B88:H88"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B82:H82"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C27:C35"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="C5:C11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C41:C48"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="B41:B48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B19:B25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B94" r:id="rId1" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
+    <hyperlink ref="B95" r:id="rId1" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
+    <hyperlink ref="H1" r:id="rId2" xr:uid="{C1729FE9-EA40-456C-B48C-E02DC50D67A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Test_Documentation/Checklists/Web_app/Checklists_for_learn.epam.com_STA_course.xlsx
+++ b/Test_Documentation/Checklists/Web_app/Checklists_for_learn.epam.com_STA_course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lilia\Documents\I-Tester_Portfolio\Portfolio_Tester\Test_Documentation\Checklists\Web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E62DFD-9FAC-4E68-9FCF-41DDE4027988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970485F1-D3CD-451C-B191-94B53022BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37770" yWindow="-3800" windowWidth="37770" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4430" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist learn.epam.com" sheetId="1" r:id="rId1"/>
@@ -613,9 +613,6 @@
     <t>II. Checklists for Non-Functional Testing of learn.epam.com (on March 2023)</t>
   </si>
   <si>
-    <t>I. Checklists for Functionality of learn.epam.com (on March 2023)</t>
-  </si>
-  <si>
     <t>The reason for the need for smoke or regression testing</t>
   </si>
   <si>
@@ -672,7 +669,10 @@
     <t>The button "Send" the message works correctly.</t>
   </si>
   <si>
-    <t>Back on main page</t>
+    <t>Back on the main page</t>
+  </si>
+  <si>
+    <t>I. Checklists for Functionality of learn.epam.com (on April 2023)</t>
   </si>
 </sst>
 </file>
@@ -700,39 +700,45 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="9" tint="0.79998168889431442"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -978,8 +984,8 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1044,8 +1050,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1366,7 +1372,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,8 +1389,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="57" t="s">
-        <v>202</v>
+      <c r="H1" s="35" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1401,7 +1407,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>8</v>
@@ -1410,12 +1416,12 @@
         <v>9</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -1448,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10" t="s">
@@ -1486,7 +1492,7 @@
       <c r="B7" s="38"/>
       <c r="C7" s="37"/>
       <c r="D7" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="29" t="s">
@@ -1496,7 +1502,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1648,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1658,7 +1664,7 @@
       <c r="B16" s="38"/>
       <c r="C16" s="37"/>
       <c r="D16" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="10" t="s">
@@ -1866,7 +1872,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="10" t="s">
@@ -1904,7 +1910,7 @@
       <c r="B29" s="38"/>
       <c r="C29" s="37"/>
       <c r="D29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="29" t="s">
@@ -1914,7 +1920,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1924,7 +1930,7 @@
       <c r="B30" s="38"/>
       <c r="C30" s="37"/>
       <c r="D30" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="29" t="s">
@@ -2008,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="10" t="s">
@@ -2438,7 +2444,7 @@
         <v>92</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C58" s="39"/>
       <c r="D58" s="39"/>
@@ -2512,7 +2518,7 @@
       <c r="B62" s="38"/>
       <c r="C62" s="37"/>
       <c r="D62" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="10" t="s">
@@ -2608,7 +2614,7 @@
         <v>104</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="39"/>
       <c r="D68" s="39"/>
@@ -2970,7 +2976,7 @@
         <v>142</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" s="39"/>
       <c r="D88" s="39"/>
@@ -3054,9 +3060,10 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="B95" s="35" t="s">
-        <v>202</v>
-      </c>
+      <c r="B95" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="57"/>
       <c r="E95" s="21"/>
       <c r="F95" s="10"/>
       <c r="G95" s="6" t="s">
@@ -3089,7 +3096,8 @@
       <c r="G102" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="73">
+    <mergeCell ref="B95:C95"/>
     <mergeCell ref="F93:H93"/>
     <mergeCell ref="B90:H90"/>
     <mergeCell ref="H44:H48"/>
@@ -3164,8 +3172,8 @@
     <mergeCell ref="B19:B25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B95" r:id="rId1" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
-    <hyperlink ref="H1" r:id="rId2" xr:uid="{C1729FE9-EA40-456C-B48C-E02DC50D67A7}"/>
+    <hyperlink ref="B95" r:id="rId1" display="Back on main page" xr:uid="{20CAD1C3-6D87-46FA-9061-9B6B6860129B}"/>
+    <hyperlink ref="H1" r:id="rId2" display="Back on main page" xr:uid="{C1729FE9-EA40-456C-B48C-E02DC50D67A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
